--- a/medicine/Mort/Liste_des_matadors_morts_dans_l'arène/Liste_des_matadors_morts_dans_l'arène.xlsx
+++ b/medicine/Mort/Liste_des_matadors_morts_dans_l'arène/Liste_des_matadors_morts_dans_l'arène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_matadors_morts_dans_l%27ar%C3%A8ne</t>
+          <t>Liste_des_matadors_morts_dans_l'arène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Soixante-et-un matadors ont été tués dans l'arène ainsi que cent quatre-vingt-quatre novilleros, soixante-treize picadors, cent quarante-neuf banderilleros, trois puntilleros et huit rejoneadores[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soixante-et-un matadors ont été tués dans l'arène ainsi que cent quatre-vingt-quatre novilleros, soixante-treize picadors, cent quarante-neuf banderilleros, trois puntilleros et huit rejoneadores.
 La liste ci-après comprend les soixante-et-un matadors tués.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_matadors_morts_dans_l%27ar%C3%A8ne</t>
+          <t>Liste_des_matadors_morts_dans_l'arène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>XVIIIe siècle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1 - José Candido Esposito ou Exposito : tué au Puerto de Santa María (Espagne, province de Cadix) le 23 juin 1771 par un taureau de la ganadería de Bornos.</t>
         </is>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_matadors_morts_dans_l%27ar%C3%A8ne</t>
+          <t>Liste_des_matadors_morts_dans_l'arène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>XIXe siècle</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2 - José Delgado Guerra surnommé «Pepe Hillo» : tué à Madrid (Espagne) le 11 mai 1801 par le taureau « Barbudo » de la ganadería de Don José Joaquin Rodríguez.
 3 - Francisco García  surnommé «Perrucho» : tué à Grenade (Espagne) le 8 juin 1801 par le taureau « Barbero » de la ganadería de Don Juan José Bécquer.
@@ -577,7 +593,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_matadors_morts_dans_l%27ar%C3%A8ne</t>
+          <t>Liste_des_matadors_morts_dans_l'arène</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -595,7 +611,9 @@
           <t>XXe siècle</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>26 - Antonio Montes : gravement blessé à Mexico le 13 janvier 1907 par le taureau « Matajacas » de la ganadería de Tepeyahualco ; mort à Mexico le 17 janvier 1907.
 27 - Hilario González Delgado surnommé « Serranito » : blessé à Astorga (Espagne, province de León) le 23 août 1908 par le taureau « Sordido » de la ganadería de Don Santiago Neches ; mort à Madrid le 13 octobre 1908.
@@ -638,7 +656,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_matadors_morts_dans_l%27ar%C3%A8ne</t>
+          <t>Liste_des_matadors_morts_dans_l'arène</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,7 +674,9 @@
           <t>XXIe siècle</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>58 - Rodolfo Rodríguez surnommé « El Pana » : blessé à Ciudad Lerdo (Mexique, État de Durango) le 1er mai 2016 par le taureau « Pan Francés » de la ganadería de Guaname ;  mort à Guadalajara (Mexique, État de Jalisco) le 2 juin 2016.
 59 - Renatto Motta (es) : mortellement blessé à Ayacucho, Pérou, le 17 mai 2016, lors des Fêtes de San Isidro Labrador. Décédé d'une hémorragie lors de son transfert à l'hôpital de Nazca
